--- a/uploads/report-09-04-2024.xlsx
+++ b/uploads/report-09-04-2024.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -431,214 +431,240 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>1893a881-93a4-43f1-8c57-f17abb276b28</v>
+        <v>7e424a44-01ea-4d92-83fe-d7f003c8bde8</v>
       </c>
       <c r="B2" t="str">
-        <v>Integration of the Indian States</v>
+        <v>Fundamentals of Wavelets</v>
       </c>
       <c r="C2" t="str">
-        <v>history</v>
+        <v>signal_processing</v>
       </c>
       <c r="D2" t="str">
-        <v>Orient Blackswan</v>
+        <v>Wiley</v>
       </c>
       <c r="E2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" s="1">
-        <v>45391.00547505787</v>
+        <v>45391.35505844907</v>
       </c>
       <c r="G2" s="1">
-        <v>45391.00547505787</v>
+        <v>45391.35505844907</v>
+      </c>
+      <c r="H2" s="1">
+        <v>45391.592312939814</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>ed7d5144-1a80-4c1f-b0aa-68e63d91e0b1</v>
+        <v>52d4f340-5f7e-4d86-8ab7-25566eb64995</v>
       </c>
       <c r="B3" t="str">
-        <v>Drunkard's Walk, The</v>
+        <v>Data Smart</v>
       </c>
       <c r="C3" t="str">
-        <v>science</v>
+        <v>data_science</v>
       </c>
       <c r="D3" t="str">
-        <v>Penguin</v>
+        <v>Wiley</v>
       </c>
       <c r="E3" t="b">
         <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>45391.00547505787</v>
+        <v>45391.35505844907</v>
       </c>
       <c r="G3" s="1">
-        <v>45391.00547505787</v>
+        <v>45391.35505844907</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>3c038261-e3ef-44d6-9adb-083998f4a6b5</v>
+        <v>ef0fbff6-2d51-4a9b-9a34-212512cf8d4b</v>
       </c>
       <c r="B4" t="str">
-        <v>Image Processing &amp; Mathematical Morphology</v>
+        <v>God Created the Integers</v>
       </c>
       <c r="C4" t="str">
-        <v>signal_processing</v>
+        <v>mathematics</v>
       </c>
       <c r="D4" t="str">
-        <v>CRC</v>
+        <v>Penguin</v>
       </c>
       <c r="E4" t="b">
         <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>45391.00547505787</v>
+        <v>45391.35505844907</v>
       </c>
       <c r="G4" s="1">
-        <v>45391.00547505787</v>
+        <v>45391.35505844907</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>25ac8657-2c2e-4557-ade8-e7e856945f36</v>
+        <v>0eac702b-4e5b-48e8-9948-007b685d0915</v>
       </c>
       <c r="B5" t="str">
-        <v>Fundamentals of Wavelets</v>
+        <v>Superfreakonomics</v>
       </c>
       <c r="C5" t="str">
-        <v>signal_processing</v>
+        <v>economics</v>
       </c>
       <c r="D5" t="str">
-        <v>Wiley</v>
+        <v>HarperCollins</v>
       </c>
       <c r="E5" t="b">
         <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>45391.00547505787</v>
+        <v>45391.35505844907</v>
       </c>
       <c r="G5" s="1">
-        <v>45391.00547505787</v>
+        <v>45391.35505844907</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>99176c8a-89c7-4c3d-b707-742e535d8ca0</v>
+        <v>d915b0f9-7293-4011-8b9a-2171d8984dd0</v>
       </c>
       <c r="B6" t="str">
-        <v>Superfreakonomics</v>
+        <v>Orientalism</v>
       </c>
       <c r="C6" t="str">
-        <v>economics</v>
+        <v>history</v>
       </c>
       <c r="D6" t="str">
-        <v>HarperCollins</v>
+        <v>Penguin</v>
       </c>
       <c r="E6" t="b">
         <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>45391.00547505787</v>
+        <v>45391.35505844907</v>
       </c>
       <c r="G6" s="1">
-        <v>45391.00547505787</v>
+        <v>45391.35505844907</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>3be7d050-fea0-42d8-847d-d736ddc02d80</v>
+        <v>2e1b1f40-cb5b-434e-a609-d33f6c7074b3</v>
       </c>
       <c r="B7" t="str">
-        <v>Orientalism</v>
+        <v>Nature of Statistical Learning Theory, The</v>
       </c>
       <c r="C7" t="str">
-        <v>history</v>
+        <v>data_science</v>
       </c>
       <c r="D7" t="str">
-        <v>Penguin</v>
+        <v>Springer</v>
       </c>
       <c r="E7" t="b">
         <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>45391.00547505787</v>
+        <v>45391.35505844907</v>
       </c>
       <c r="G7" s="1">
-        <v>45391.00547505787</v>
+        <v>45391.35505844907</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>766044c7-83ec-45b7-9dc1-e0a6f9a76fb7</v>
+        <v>6f994baf-5553-4131-a175-73672ce6081f</v>
       </c>
       <c r="B8" t="str">
-        <v>Nature of Statistical Learning Theory, The</v>
+        <v>Integration of the Indian States</v>
       </c>
       <c r="C8" t="str">
-        <v>data_science</v>
+        <v>history</v>
       </c>
       <c r="D8" t="str">
-        <v>Springer</v>
+        <v>Orient Blackswan</v>
       </c>
       <c r="E8" t="b">
         <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>45391.00547505787</v>
+        <v>45391.35505844907</v>
       </c>
       <c r="G8" s="1">
-        <v>45391.00547505787</v>
+        <v>45391.35505844907</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>a6e0506e-a025-43c5-a52a-b27de8c71760</v>
+        <v>0fe04d0b-4130-4b7f-a562-e540d252194b</v>
       </c>
       <c r="B9" t="str">
-        <v>Data Smart</v>
+        <v>Drunkard's Walk, The</v>
       </c>
       <c r="C9" t="str">
-        <v>data_science</v>
+        <v>science</v>
       </c>
       <c r="D9" t="str">
-        <v>Wiley</v>
+        <v>Penguin</v>
       </c>
       <c r="E9" t="b">
         <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>45391.00547505787</v>
+        <v>45391.35505844907</v>
       </c>
       <c r="G9" s="1">
-        <v>45391.00547505787</v>
+        <v>45391.35505844907</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>22faa89f-bb37-4631-83e8-5eb3053ebe85</v>
+        <v>0a0ee015-8983-47f8-b20a-f2ef4137db8a</v>
       </c>
       <c r="B10" t="str">
-        <v>God Created the Integers</v>
+        <v>Image Processing &amp; Mathematical Morphology</v>
       </c>
       <c r="C10" t="str">
-        <v>mathematics</v>
+        <v>signal_processing</v>
       </c>
       <c r="D10" t="str">
+        <v>CRC</v>
+      </c>
+      <c r="E10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1">
+        <v>45391.35505844907</v>
+      </c>
+      <c r="G10" s="1">
+        <v>45391.35505844907</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>3894fa3a-6ca0-4c38-9e49-1f0fa3cdfbb3</v>
+      </c>
+      <c r="B11" t="str">
+        <v>How to Think Like Sherlock Holmes</v>
+      </c>
+      <c r="C11" t="str">
+        <v>psychology</v>
+      </c>
+      <c r="D11" t="str">
         <v>Penguin</v>
       </c>
-      <c r="E10" t="b">
-        <v>0</v>
-      </c>
-      <c r="F10" s="1">
-        <v>45391.00547505787</v>
-      </c>
-      <c r="G10" s="1">
-        <v>45391.00547505787</v>
+      <c r="E11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1">
+        <v>45391.35505844907</v>
+      </c>
+      <c r="G11" s="1">
+        <v>45391.35505844907</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H10"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:H11"/>
   </ignoredErrors>
 </worksheet>
 </file>